--- a/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
+++ b/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
@@ -2183,7 +2183,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.7403856875758613</v>
+        <v>0.7403856875758612</v>
       </c>
       <c r="BF2" t="n">
         <v>2.1333333333333333</v>
@@ -2425,7 +2425,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.7039631414544358</v>
+        <v>0.703963141454436</v>
       </c>
       <c r="BF3" t="n">
         <v>3.5789473684210527</v>
@@ -2667,7 +2667,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.6459729144432846</v>
+        <v>0.6459729144432844</v>
       </c>
       <c r="BF4" t="n">
         <v>4.181818181818182</v>
@@ -2909,7 +2909,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.7256314504280086</v>
+        <v>0.7256314504280087</v>
       </c>
       <c r="BF5" t="n">
         <v>4.517241379310345</v>
@@ -3151,7 +3151,7 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.582157614496779</v>
+        <v>0.5821576144967792</v>
       </c>
       <c r="BF6" t="n">
         <v>4.035714285714286</v>
@@ -3393,7 +3393,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.7730948816876567</v>
+        <v>0.7730948816876565</v>
       </c>
       <c r="BF7" t="n">
         <v>3.391304347826087</v>
@@ -3635,7 +3635,7 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.6992949937059293</v>
+        <v>0.699294993705929</v>
       </c>
       <c r="BF8" t="n">
         <v>3.6</v>
@@ -4119,7 +4119,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.6661966366553167</v>
+        <v>0.6661966366553166</v>
       </c>
       <c r="BF10" t="n">
         <v>6.016949152542373</v>
@@ -4361,7 +4361,7 @@
         <v>0.4911616161616162</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.6687610599583356</v>
+        <v>0.6687610599583357</v>
       </c>
       <c r="BF11" t="n">
         <v>6.057142857142857</v>
@@ -4603,7 +4603,7 @@
         <v>0.9488636363636364</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.7643437522066274</v>
+        <v>0.7643437522066272</v>
       </c>
       <c r="BF12" t="n">
         <v>2.3902439024390243</v>
@@ -4845,7 +4845,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.6898248328535832</v>
+        <v>0.6898248328535829</v>
       </c>
       <c r="BF13" t="n">
         <v>3.7260273972602738</v>
@@ -5329,7 +5329,7 @@
         <v>1.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="BF15" t="n">
         <v>1.625</v>
@@ -5571,7 +5571,7 @@
         <v>0.97534516765286</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.7860614906997361</v>
+        <v>0.7860614906997364</v>
       </c>
       <c r="BF16" t="n">
         <v>1.7346938775510203</v>
@@ -5813,7 +5813,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.7094200825169517</v>
+        <v>0.7094200825169515</v>
       </c>
       <c r="BF17" t="n">
         <v>3.425925925925926</v>
@@ -6297,7 +6297,7 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.6800727431914516</v>
+        <v>0.680072743191452</v>
       </c>
       <c r="BF19" t="n">
         <v>1.641025641025641</v>
@@ -6539,7 +6539,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.5836291076644475</v>
+        <v>0.5836291076644484</v>
       </c>
       <c r="BF20" t="n">
         <v>5.4520547945205475</v>
@@ -6781,7 +6781,7 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.7456299505271813</v>
+        <v>0.745629950527181</v>
       </c>
       <c r="BF21" t="n">
         <v>5.257142857142857</v>
@@ -7023,7 +7023,7 @@
         <v>0.8648915187376726</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.7802593038528182</v>
+        <v>0.7802593038528179</v>
       </c>
       <c r="BF22" t="n">
         <v>1.7222222222222223</v>
@@ -7265,7 +7265,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.6305888847153057</v>
+        <v>0.6305888847153067</v>
       </c>
       <c r="BF23" t="n">
         <v>3.0833333333333335</v>
@@ -7507,7 +7507,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.7562500316434445</v>
+        <v>0.7562500316434444</v>
       </c>
       <c r="BF24" t="n">
         <v>2.0943396226415096</v>
@@ -7749,7 +7749,7 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.5604292923717348</v>
+        <v>0.5604292923717346</v>
       </c>
       <c r="BF25" t="n">
         <v>2.1327433628318584</v>
@@ -7991,7 +7991,7 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.7848416809344697</v>
+        <v>0.7848416809344698</v>
       </c>
       <c r="BF26" t="n">
         <v>3.7674418604651163</v>
@@ -8475,7 +8475,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="BE28" t="n">
-        <v>0.616507512323556</v>
+        <v>0.6165075123235559</v>
       </c>
       <c r="BF28" t="n">
         <v>4.67741935483871</v>
@@ -8717,7 +8717,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.6452743060553269</v>
+        <v>0.6452743060553271</v>
       </c>
       <c r="BF29" t="n">
         <v>6.611111111111111</v>
@@ -8959,7 +8959,7 @@
         <v>0.6981946624803768</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.754586803847797</v>
+        <v>0.7545868038477969</v>
       </c>
       <c r="BF30" t="n">
         <v>2.4310344827586206</v>
@@ -9927,7 +9927,7 @@
         <v>0.698961937716263</v>
       </c>
       <c r="BE34" t="n">
-        <v>0.7655454620458134</v>
+        <v>0.7655454620458135</v>
       </c>
       <c r="BF34" t="n">
         <v>2.96875</v>
@@ -10169,7 +10169,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="BE35" t="n">
-        <v>0.6794615015976848</v>
+        <v>0.6794615015976847</v>
       </c>
       <c r="BF35" t="n">
         <v>3.55</v>
@@ -10411,7 +10411,7 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="BE36" t="n">
-        <v>0.6561121091631201</v>
+        <v>0.6561121091631203</v>
       </c>
       <c r="BF36" t="n">
         <v>4.222222222222222</v>
@@ -10653,7 +10653,7 @@
         <v>0.6734375</v>
       </c>
       <c r="BE37" t="n">
-        <v>0.7192975424790959</v>
+        <v>0.7192975424790958</v>
       </c>
       <c r="BF37" t="n">
         <v>3.8461538461538463</v>
@@ -10895,7 +10895,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="BE38" t="n">
-        <v>0.6948826958819585</v>
+        <v>0.6948826958819586</v>
       </c>
       <c r="BF38" t="n">
         <v>6.519230769230769</v>
@@ -11137,7 +11137,7 @@
         <v>0.6351084812623274</v>
       </c>
       <c r="BE39" t="n">
-        <v>0.773349315383926</v>
+        <v>0.7733493153839263</v>
       </c>
       <c r="BF39" t="n">
         <v>1.3333333333333333</v>
@@ -11377,7 +11377,7 @@
         <v>0.7746539792387545</v>
       </c>
       <c r="BE40" t="n">
-        <v>0.744804247089552</v>
+        <v>0.7448042470895521</v>
       </c>
       <c r="BF40" t="n">
         <v>4.2272727272727275</v>
@@ -11619,7 +11619,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="BE41" t="n">
-        <v>0.7067166389319384</v>
+        <v>0.7067166389319383</v>
       </c>
       <c r="BF41" t="n">
         <v>1.8387096774193548</v>
@@ -12345,7 +12345,7 @@
         <v>0.22776859504132224</v>
       </c>
       <c r="BE44" t="n">
-        <v>0.5171739316071912</v>
+        <v>0.5171739316071913</v>
       </c>
       <c r="BF44" t="n">
         <v>3.411764705882353</v>
@@ -12587,7 +12587,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="BE45" t="n">
-        <v>0.5528351157564725</v>
+        <v>0.5528351157564726</v>
       </c>
       <c r="BF45" t="n">
         <v>6.206185567010309</v>
@@ -13071,7 +13071,7 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="BE47" t="n">
-        <v>0.7117226763030793</v>
+        <v>0.7117226763030791</v>
       </c>
       <c r="BF47" t="n">
         <v>4.1</v>
@@ -13313,7 +13313,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="BE48" t="n">
-        <v>0.7584884506513884</v>
+        <v>0.758488450651388</v>
       </c>
       <c r="BF48" t="n">
         <v>2.7142857142857144</v>
@@ -13555,7 +13555,7 @@
         <v>1.0</v>
       </c>
       <c r="BE49" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="BF49" t="n">
         <v>3.25</v>
@@ -14039,7 +14039,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="BE51" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="BF51" t="n">
         <v>1.52</v>
@@ -14281,7 +14281,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="BE52" t="n">
-        <v>0.7649371473690575</v>
+        <v>0.7649371473690574</v>
       </c>
       <c r="BF52" t="n">
         <v>1.6666666666666667</v>
@@ -14523,7 +14523,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="BE53" t="n">
-        <v>0.6991548881373774</v>
+        <v>0.6991548881373776</v>
       </c>
       <c r="BF53" t="n">
         <v>3.4375</v>
@@ -15007,7 +15007,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="BE55" t="n">
-        <v>0.7608344969958325</v>
+        <v>0.7608344969958327</v>
       </c>
       <c r="BF55" t="n">
         <v>3.1621621621621623</v>
@@ -15249,7 +15249,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="BE56" t="n">
-        <v>0.5579632877250357</v>
+        <v>0.5579632877250355</v>
       </c>
       <c r="BF56" t="n">
         <v>4.096774193548387</v>
@@ -15975,7 +15975,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="BE59" t="n">
-        <v>0.746726910333588</v>
+        <v>0.7467269103335881</v>
       </c>
       <c r="BF59" t="n">
         <v>2.727272727272727</v>
@@ -16217,7 +16217,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="BE60" t="n">
-        <v>0.6864100233833476</v>
+        <v>0.6864100233833472</v>
       </c>
       <c r="BF60" t="n">
         <v>2.7222222222222223</v>
@@ -16459,7 +16459,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="BE61" t="n">
-        <v>0.609623541202747</v>
+        <v>0.6096235412027471</v>
       </c>
       <c r="BF61" t="n">
         <v>3.408333333333333</v>
@@ -16701,7 +16701,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="BE62" t="n">
-        <v>0.6303361469402874</v>
+        <v>0.6303361469402872</v>
       </c>
       <c r="BF62" t="n">
         <v>2.65</v>
@@ -16943,7 +16943,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="BE63" t="n">
-        <v>0.7419796269483416</v>
+        <v>0.7419796269483417</v>
       </c>
       <c r="BF63" t="n">
         <v>1.6875</v>
@@ -17185,7 +17185,7 @@
         <v>0.7915456305979182</v>
       </c>
       <c r="BE64" t="n">
-        <v>0.7704379740217013</v>
+        <v>0.7704379740217012</v>
       </c>
       <c r="BF64" t="n">
         <v>4.157407407407407</v>
@@ -17911,7 +17911,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="BE67" t="n">
-        <v>0.6518436414268682</v>
+        <v>0.6518436414268681</v>
       </c>
       <c r="BF67" t="n">
         <v>3.806451612903226</v>
@@ -18153,7 +18153,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="BE68" t="n">
-        <v>0.6487310688403934</v>
+        <v>0.6487310688403932</v>
       </c>
       <c r="BF68" t="n">
         <v>2.967741935483871</v>
@@ -18395,7 +18395,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="BE69" t="n">
-        <v>0.6972948089468823</v>
+        <v>0.6972948089468819</v>
       </c>
       <c r="BF69" t="n">
         <v>4.645161290322581</v>
@@ -18637,7 +18637,7 @@
         <v>0.4751683501683501</v>
       </c>
       <c r="BE70" t="n">
-        <v>0.6995900777392823</v>
+        <v>0.6995900777392827</v>
       </c>
       <c r="BF70" t="n">
         <v>1.8157894736842106</v>
@@ -19361,7 +19361,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="BE73" t="n">
-        <v>0.5890297335340975</v>
+        <v>0.5890297335340976</v>
       </c>
       <c r="BF73" t="n">
         <v>6.423076923076923</v>
@@ -19845,7 +19845,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="BE75" t="n">
-        <v>0.7419526491669418</v>
+        <v>0.7419526491669419</v>
       </c>
       <c r="BF75" t="n">
         <v>3.9622641509433962</v>
@@ -20087,7 +20087,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="BE76" t="n">
-        <v>0.6903631718354526</v>
+        <v>0.6903631718354523</v>
       </c>
       <c r="BF76" t="n">
         <v>1.72</v>
@@ -20571,7 +20571,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="BE78" t="n">
-        <v>0.6864100233833474</v>
+        <v>0.6864100233833476</v>
       </c>
       <c r="BF78" t="n">
         <v>2.888888888888889</v>
@@ -21045,7 +21045,7 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="BE80" t="n">
-        <v>0.6929632483024005</v>
+        <v>0.6929632483024007</v>
       </c>
       <c r="BF80" t="n">
         <v>1.7272727272727273</v>
@@ -21287,7 +21287,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="BE81" t="n">
-        <v>0.6818432807724643</v>
+        <v>0.6818432807724641</v>
       </c>
       <c r="BF81" t="n">
         <v>1.84375</v>
@@ -21529,7 +21529,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="BE82" t="n">
-        <v>0.64709892965304</v>
+        <v>0.6470989296530394</v>
       </c>
       <c r="BF82" t="n">
         <v>2.656716417910448</v>
@@ -21771,7 +21771,7 @@
         <v>1.0</v>
       </c>
       <c r="BE83" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BF83" t="n">
         <v>1.7446808510638299</v>
@@ -22247,7 +22247,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="BE85" t="n">
-        <v>0.6724618248782626</v>
+        <v>0.6724618248782629</v>
       </c>
       <c r="BF85" t="n">
         <v>2.6161137440758293</v>
@@ -22489,7 +22489,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="BE86" t="n">
-        <v>0.6919737827513825</v>
+        <v>0.691973782751383</v>
       </c>
       <c r="BF86" t="n">
         <v>1.375</v>
@@ -22731,7 +22731,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="BE87" t="n">
-        <v>0.6286140034427036</v>
+        <v>0.6286140034427035</v>
       </c>
       <c r="BF87" t="n">
         <v>3.0714285714285716</v>
@@ -22973,7 +22973,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="BE88" t="n">
-        <v>0.4892434027867939</v>
+        <v>0.4892434027867937</v>
       </c>
       <c r="BF88" t="n">
         <v>7.4</v>
@@ -23215,7 +23215,7 @@
         <v>0.4403453689167976</v>
       </c>
       <c r="BE89" t="n">
-        <v>0.6463453681635184</v>
+        <v>0.6463453681635187</v>
       </c>
       <c r="BF89" t="n">
         <v>5.966101694915254</v>
@@ -23455,7 +23455,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="BE90" t="n">
-        <v>0.6669611518351825</v>
+        <v>0.6669611518351822</v>
       </c>
       <c r="BF90" t="n">
         <v>2.127659574468085</v>
@@ -23929,7 +23929,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="BE92" t="n">
-        <v>0.3286017616669826</v>
+        <v>0.3286017616669815</v>
       </c>
       <c r="BF92" t="n">
         <v>3.2222222222222223</v>
@@ -24171,7 +24171,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="BE93" t="n">
-        <v>0.6061860976384703</v>
+        <v>0.60618609763847</v>
       </c>
       <c r="BF93" t="n">
         <v>6.856060606060606</v>
@@ -24413,7 +24413,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="BE94" t="n">
-        <v>0.6728497817027044</v>
+        <v>0.672849781702704</v>
       </c>
       <c r="BF94" t="n">
         <v>4.3076923076923075</v>
@@ -25139,7 +25139,7 @@
         <v>0.8358585858585859</v>
       </c>
       <c r="BE97" t="n">
-        <v>0.7243148930851243</v>
+        <v>0.7243148930851242</v>
       </c>
       <c r="BF97" t="n">
         <v>2.27027027027027</v>
@@ -25381,7 +25381,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="BE98" t="n">
-        <v>0.7281974999558517</v>
+        <v>0.7281974999558514</v>
       </c>
       <c r="BF98" t="n">
         <v>2.5238095238095237</v>
@@ -25623,7 +25623,7 @@
         <v>1.0</v>
       </c>
       <c r="BE99" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BF99" t="n">
         <v>1.0</v>
@@ -25865,7 +25865,7 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="BE100" t="n">
-        <v>0.7659569903204871</v>
+        <v>0.7659569903204869</v>
       </c>
       <c r="BF100" t="n">
         <v>2.4489795918367347</v>
@@ -26349,7 +26349,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="BE102" t="n">
-        <v>0.6964914291399169</v>
+        <v>0.696491429139917</v>
       </c>
       <c r="BF102" t="n">
         <v>1.5</v>
@@ -26591,7 +26591,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.7391624752530124</v>
+        <v>0.7391624752530123</v>
       </c>
       <c r="BF103" t="n">
         <v>2.5555555555555554</v>
@@ -26833,7 +26833,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="BE104" t="n">
-        <v>0.5248565426737827</v>
+        <v>0.5248565426737829</v>
       </c>
       <c r="BF104" t="n">
         <v>5.855555555555555</v>
@@ -27075,7 +27075,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="BE105" t="n">
-        <v>0.5035429159959738</v>
+        <v>0.5035429159959739</v>
       </c>
       <c r="BF105" t="n">
         <v>4.011627906976744</v>
@@ -27317,7 +27317,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="BE106" t="n">
-        <v>0.5298498999513528</v>
+        <v>0.5298498999513527</v>
       </c>
       <c r="BF106" t="n">
         <v>2.2045454545454546</v>
@@ -27559,7 +27559,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="BE107" t="n">
-        <v>0.5996258034517242</v>
+        <v>0.5996258034517241</v>
       </c>
       <c r="BF107" t="n">
         <v>1.588235294117647</v>
@@ -27801,7 +27801,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="BE108" t="n">
-        <v>0.5919173910257387</v>
+        <v>0.5919173910257385</v>
       </c>
       <c r="BF108" t="n">
         <v>2.7625</v>
@@ -28043,7 +28043,7 @@
         <v>0.509469696969697</v>
       </c>
       <c r="BE109" t="n">
-        <v>0.6856155533238779</v>
+        <v>0.6856155533238778</v>
       </c>
       <c r="BF109" t="n">
         <v>2.8</v>
@@ -28285,7 +28285,7 @@
         <v>1.0</v>
       </c>
       <c r="BE110" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="BF110" t="n">
         <v>1.6923076923076923</v>
@@ -28527,7 +28527,7 @@
         <v>0.6475168350168351</v>
       </c>
       <c r="BE111" t="n">
-        <v>0.6949192071523783</v>
+        <v>0.6949192071523782</v>
       </c>
       <c r="BF111" t="n">
         <v>2.3043478260869565</v>
@@ -28769,7 +28769,7 @@
         <v>0.6081649831649831</v>
       </c>
       <c r="BE112" t="n">
-        <v>0.588527383152124</v>
+        <v>0.5885273831521238</v>
       </c>
       <c r="BF112" t="n">
         <v>5.152941176470589</v>
@@ -29011,7 +29011,7 @@
         <v>0.8533333333333334</v>
       </c>
       <c r="BE113" t="n">
-        <v>0.7896680211760518</v>
+        <v>0.789668021176052</v>
       </c>
       <c r="BF113" t="n">
         <v>1.3181818181818181</v>
@@ -29495,7 +29495,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="BE115" t="n">
-        <v>0.6922340897759255</v>
+        <v>0.692234089775926</v>
       </c>
       <c r="BF115" t="n">
         <v>1.8571428571428572</v>
@@ -29737,7 +29737,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="BE116" t="n">
-        <v>0.6817290787845065</v>
+        <v>0.6817290787845061</v>
       </c>
       <c r="BF116" t="n">
         <v>3.4516129032258065</v>
@@ -29929,7 +29929,7 @@
         <v>0.44297520661157025</v>
       </c>
       <c r="BE117" t="n">
-        <v>0.6531555214579822</v>
+        <v>0.6531555214579816</v>
       </c>
       <c r="BF117" t="n">
         <v>2.40625</v>
@@ -30171,7 +30171,7 @@
         <v>0.7171717171717171</v>
       </c>
       <c r="BE118" t="n">
-        <v>0.7161395173470756</v>
+        <v>0.7161395173470759</v>
       </c>
       <c r="BF118" t="n">
         <v>6.3076923076923075</v>
@@ -30655,7 +30655,7 @@
         <v>0.6483516483516484</v>
       </c>
       <c r="BE120" t="n">
-        <v>0.6438228895554109</v>
+        <v>0.643822889555411</v>
       </c>
       <c r="BF120" t="n">
         <v>3.9056603773584904</v>
@@ -31139,7 +31139,7 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="BE122" t="n">
-        <v>0.6462097425793841</v>
+        <v>0.6462097425793839</v>
       </c>
       <c r="BF122" t="n">
         <v>2.5</v>
@@ -31381,7 +31381,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="BE123" t="n">
-        <v>0.577768692715763</v>
+        <v>0.5777686927157631</v>
       </c>
       <c r="BF123" t="n">
         <v>1.4285714285714286</v>
@@ -31621,7 +31621,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="BE124" t="n">
-        <v>0.5757134300352917</v>
+        <v>0.5757134300352919</v>
       </c>
       <c r="BF124" t="n">
         <v>6.988095238095238</v>
@@ -31863,7 +31863,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="BE125" t="n">
-        <v>0.640015748728792</v>
+        <v>0.6400157487287919</v>
       </c>
       <c r="BF125" t="n">
         <v>1.3888888888888888</v>
@@ -32105,7 +32105,7 @@
         <v>0.4577020202020202</v>
       </c>
       <c r="BE126" t="n">
-        <v>0.6448484920261273</v>
+        <v>0.6448484920261272</v>
       </c>
       <c r="BF126" t="n">
         <v>2.925925925925926</v>
@@ -32347,7 +32347,7 @@
         <v>0.6313131313131313</v>
       </c>
       <c r="BE127" t="n">
-        <v>0.6894245115331002</v>
+        <v>0.6894245115331001</v>
       </c>
       <c r="BF127" t="n">
         <v>2.2857142857142856</v>
@@ -32589,7 +32589,7 @@
         <v>0.6808021038790268</v>
       </c>
       <c r="BE128" t="n">
-        <v>0.660262705768093</v>
+        <v>0.6602627057680932</v>
       </c>
       <c r="BF128" t="n">
         <v>5.120689655172414</v>
@@ -32831,7 +32831,7 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="BE129" t="n">
-        <v>0.6547605022189077</v>
+        <v>0.6547605022189074</v>
       </c>
       <c r="BF129" t="n">
         <v>1.56</v>
@@ -33073,7 +33073,7 @@
         <v>0.1905982905982906</v>
       </c>
       <c r="BE130" t="n">
-        <v>0.5231772525081393</v>
+        <v>0.5231772525081394</v>
       </c>
       <c r="BF130" t="n">
         <v>2.2058823529411766</v>
@@ -33265,7 +33265,7 @@
         <v>0.35374579124579125</v>
       </c>
       <c r="BE131" t="n">
-        <v>0.515377972309367</v>
+        <v>0.5153779723093674</v>
       </c>
       <c r="BF131" t="n">
         <v>3.076923076923077</v>

--- a/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
+++ b/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
@@ -2192,7 +2192,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.7403856875758612</v>
+        <v>0.7403856875758611</v>
       </c>
       <c r="BG2" t="n">
         <v>2.1333333333333333</v>
@@ -2437,7 +2437,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.7039631414544361</v>
+        <v>0.7039631414544363</v>
       </c>
       <c r="BG3" t="n">
         <v>3.5789473684210527</v>
@@ -2682,7 +2682,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.6459729144432845</v>
+        <v>0.6459729144432846</v>
       </c>
       <c r="BG4" t="n">
         <v>4.181818181818182</v>
@@ -2927,7 +2927,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.7256314504280088</v>
+        <v>0.7256314504280087</v>
       </c>
       <c r="BG5" t="n">
         <v>4.517241379310345</v>
@@ -3172,7 +3172,7 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5821576144967799</v>
+        <v>0.5821576144967794</v>
       </c>
       <c r="BG6" t="n">
         <v>4.035714285714286</v>
@@ -3907,7 +3907,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.5001923783242048</v>
+        <v>0.500192378324205</v>
       </c>
       <c r="BG9" t="n">
         <v>3.017543859649123</v>
@@ -4642,7 +4642,7 @@
         <v>0.9488636363636364</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.7643437522066269</v>
+        <v>0.7643437522066278</v>
       </c>
       <c r="BG12" t="n">
         <v>2.3902439024390243</v>
@@ -5377,7 +5377,7 @@
         <v>1.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="BG15" t="n">
         <v>1.625</v>
@@ -5622,7 +5622,7 @@
         <v>0.97534516765286</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.7860614906997364</v>
+        <v>0.7860614906997361</v>
       </c>
       <c r="BG16" t="n">
         <v>1.7346938775510203</v>
@@ -5867,7 +5867,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.7094200825169519</v>
+        <v>0.7094200825169514</v>
       </c>
       <c r="BG17" t="n">
         <v>3.425925925925926</v>
@@ -6112,7 +6112,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.6384209554272582</v>
+        <v>0.6384209554272581</v>
       </c>
       <c r="BG18" t="n">
         <v>5.568181818181818</v>
@@ -6357,7 +6357,7 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.6800727431914518</v>
+        <v>0.6800727431914516</v>
       </c>
       <c r="BG19" t="n">
         <v>1.641025641025641</v>
@@ -6602,7 +6602,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.5836291076644474</v>
+        <v>0.5836291076644476</v>
       </c>
       <c r="BG20" t="n">
         <v>5.4520547945205475</v>
@@ -7337,7 +7337,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.6305888847153067</v>
+        <v>0.6305888847153063</v>
       </c>
       <c r="BG23" t="n">
         <v>3.0833333333333335</v>
@@ -7582,7 +7582,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.7562500316434447</v>
+        <v>0.7562500316434444</v>
       </c>
       <c r="BG24" t="n">
         <v>2.0943396226415096</v>
@@ -7827,7 +7827,7 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.560429292371735</v>
+        <v>0.5604292923717348</v>
       </c>
       <c r="BG25" t="n">
         <v>2.1327433628318584</v>
@@ -8072,7 +8072,7 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.7848416809344699</v>
+        <v>0.7848416809344697</v>
       </c>
       <c r="BG26" t="n">
         <v>3.7674418604651163</v>
@@ -8562,7 +8562,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.6165075123235563</v>
+        <v>0.616507512323556</v>
       </c>
       <c r="BG28" t="n">
         <v>4.67741935483871</v>
@@ -8807,7 +8807,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.6452743060553269</v>
+        <v>0.6452743060553271</v>
       </c>
       <c r="BG29" t="n">
         <v>6.611111111111111</v>
@@ -9297,7 +9297,7 @@
         <v>0.39641003460207613</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.6416182230273746</v>
+        <v>0.6416182230273744</v>
       </c>
       <c r="BG31" t="n">
         <v>5.7894736842105265</v>
@@ -9542,7 +9542,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.6614982610536</v>
+        <v>0.6614982610535999</v>
       </c>
       <c r="BG32" t="n">
         <v>3.28</v>
@@ -9787,7 +9787,7 @@
         <v>0.3869165023011177</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.5535908241110467</v>
+        <v>0.5535908241110464</v>
       </c>
       <c r="BG33" t="n">
         <v>5.504504504504505</v>
@@ -10032,7 +10032,7 @@
         <v>0.698961937716263</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.7655454620458134</v>
+        <v>0.7655454620458136</v>
       </c>
       <c r="BG34" t="n">
         <v>2.96875</v>
@@ -10277,7 +10277,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.6794615015976849</v>
+        <v>0.6794615015976846</v>
       </c>
       <c r="BG35" t="n">
         <v>3.55</v>
@@ -10522,7 +10522,7 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.6561121091631203</v>
+        <v>0.6561121091631205</v>
       </c>
       <c r="BG36" t="n">
         <v>4.222222222222222</v>
@@ -11012,7 +11012,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.6948826958819585</v>
+        <v>0.6948826958819588</v>
       </c>
       <c r="BG38" t="n">
         <v>6.519230769230769</v>
@@ -11257,7 +11257,7 @@
         <v>0.6351084812623274</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.7733493153839262</v>
+        <v>0.7733493153839263</v>
       </c>
       <c r="BG39" t="n">
         <v>1.3333333333333333</v>
@@ -11500,7 +11500,7 @@
         <v>0.7746539792387545</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.7448042470895523</v>
+        <v>0.7448042470895522</v>
       </c>
       <c r="BG40" t="n">
         <v>4.2272727272727275</v>
@@ -11745,7 +11745,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.7067166389319384</v>
+        <v>0.7067166389319386</v>
       </c>
       <c r="BG41" t="n">
         <v>1.8387096774193548</v>
@@ -11990,7 +11990,7 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.7472947271454689</v>
+        <v>0.7472947271454687</v>
       </c>
       <c r="BG42" t="n">
         <v>4.131578947368421</v>
@@ -12235,7 +12235,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="BF43" t="n">
-        <v>0.6814509521019754</v>
+        <v>0.6814509521019758</v>
       </c>
       <c r="BG43" t="n">
         <v>1.4838709677419355</v>
@@ -12480,7 +12480,7 @@
         <v>0.22776859504132224</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.517173931607191</v>
+        <v>0.5171739316071913</v>
       </c>
       <c r="BG44" t="n">
         <v>3.411764705882353</v>
@@ -12725,7 +12725,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="BF45" t="n">
-        <v>0.5528351157564727</v>
+        <v>0.5528351157564726</v>
       </c>
       <c r="BG45" t="n">
         <v>6.206185567010309</v>
@@ -12970,7 +12970,7 @@
         <v>0.31786948853615515</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.6109976549649964</v>
+        <v>0.6109976549649963</v>
       </c>
       <c r="BG46" t="n">
         <v>2.888</v>
@@ -13215,7 +13215,7 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="BF47" t="n">
-        <v>0.7117226763030788</v>
+        <v>0.7117226763030793</v>
       </c>
       <c r="BG47" t="n">
         <v>4.1</v>
@@ -13460,7 +13460,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="BF48" t="n">
-        <v>0.758488450651388</v>
+        <v>0.7584884506513881</v>
       </c>
       <c r="BG48" t="n">
         <v>2.7142857142857144</v>
@@ -13950,7 +13950,7 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="BF50" t="n">
-        <v>0.6001663826186264</v>
+        <v>0.6001663826186265</v>
       </c>
       <c r="BG50" t="n">
         <v>3.462686567164179</v>
@@ -14440,7 +14440,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.7649371473690575</v>
+        <v>0.7649371473690574</v>
       </c>
       <c r="BG52" t="n">
         <v>1.6666666666666667</v>
@@ -14685,7 +14685,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="BF53" t="n">
-        <v>0.6991548881373775</v>
+        <v>0.6991548881373776</v>
       </c>
       <c r="BG53" t="n">
         <v>3.4375</v>
@@ -14930,7 +14930,7 @@
         <v>1.0</v>
       </c>
       <c r="BF54" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="BG54" t="n">
         <v>4.212765957446808</v>
@@ -15175,7 +15175,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.7608344969958328</v>
+        <v>0.7608344969958327</v>
       </c>
       <c r="BG55" t="n">
         <v>3.1621621621621623</v>
@@ -15420,7 +15420,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.5579632877250357</v>
+        <v>0.5579632877250358</v>
       </c>
       <c r="BG56" t="n">
         <v>4.096774193548387</v>
@@ -15665,7 +15665,7 @@
         <v>1.0</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.7683375209644603</v>
+        <v>0.7683375209644598</v>
       </c>
       <c r="BG57" t="n">
         <v>2.1379310344827585</v>
@@ -15910,7 +15910,7 @@
         <v>0.7001972386587771</v>
       </c>
       <c r="BF58" t="n">
-        <v>0.7214725650655626</v>
+        <v>0.721472565065563</v>
       </c>
       <c r="BG58" t="n">
         <v>4.585365853658536</v>
@@ -16155,7 +16155,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.7467269103335874</v>
+        <v>0.7467269103335876</v>
       </c>
       <c r="BG59" t="n">
         <v>2.727272727272727</v>
@@ -16400,7 +16400,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="BF60" t="n">
-        <v>0.6864100233833476</v>
+        <v>0.6864100233833474</v>
       </c>
       <c r="BG60" t="n">
         <v>2.7222222222222223</v>
@@ -16645,7 +16645,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="BF61" t="n">
-        <v>0.6096235412027468</v>
+        <v>0.6096235412027471</v>
       </c>
       <c r="BG61" t="n">
         <v>3.408333333333333</v>
@@ -16890,7 +16890,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="BF62" t="n">
-        <v>0.6303361469402876</v>
+        <v>0.6303361469402881</v>
       </c>
       <c r="BG62" t="n">
         <v>2.65</v>
@@ -17135,7 +17135,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="BF63" t="n">
-        <v>0.7419796269483413</v>
+        <v>0.7419796269483417</v>
       </c>
       <c r="BG63" t="n">
         <v>1.6875</v>
@@ -17625,7 +17625,7 @@
         <v>0.3586456278763971</v>
       </c>
       <c r="BF65" t="n">
-        <v>0.6591804531074174</v>
+        <v>0.6591804531074172</v>
       </c>
       <c r="BG65" t="n">
         <v>5.34</v>
@@ -17870,7 +17870,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.7670059672747954</v>
+        <v>0.7670059672747958</v>
       </c>
       <c r="BG66" t="n">
         <v>4.764705882352941</v>
@@ -18115,7 +18115,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.6518436414268686</v>
+        <v>0.6518436414268677</v>
       </c>
       <c r="BG67" t="n">
         <v>3.806451612903226</v>
@@ -18360,7 +18360,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="BF68" t="n">
-        <v>0.6487310688403932</v>
+        <v>0.6487310688403937</v>
       </c>
       <c r="BG68" t="n">
         <v>2.967741935483871</v>
@@ -18605,7 +18605,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="BF69" t="n">
-        <v>0.6972948089468826</v>
+        <v>0.6972948089468822</v>
       </c>
       <c r="BG69" t="n">
         <v>4.645161290322581</v>
@@ -19583,7 +19583,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="BF73" t="n">
-        <v>0.5890297335340974</v>
+        <v>0.5890297335340975</v>
       </c>
       <c r="BG73" t="n">
         <v>6.423076923076923</v>
@@ -19828,7 +19828,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="BF74" t="n">
-        <v>0.6541075676695763</v>
+        <v>0.654107567669576</v>
       </c>
       <c r="BG74" t="n">
         <v>5.931818181818182</v>
@@ -20073,7 +20073,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="BF75" t="n">
-        <v>0.7419526491669418</v>
+        <v>0.741952649166942</v>
       </c>
       <c r="BG75" t="n">
         <v>3.9622641509433962</v>
@@ -20318,7 +20318,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="BF76" t="n">
-        <v>0.690363171835452</v>
+        <v>0.6903631718354523</v>
       </c>
       <c r="BG76" t="n">
         <v>1.72</v>
@@ -20808,7 +20808,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="BF78" t="n">
-        <v>0.6864100233833473</v>
+        <v>0.6864100233833474</v>
       </c>
       <c r="BG78" t="n">
         <v>2.888888888888889</v>
@@ -21053,7 +21053,7 @@
         <v>0.8421717171717171</v>
       </c>
       <c r="BF79" t="n">
-        <v>0.7633270405226221</v>
+        <v>0.7633270405226223</v>
       </c>
       <c r="BG79" t="n">
         <v>3.48</v>
@@ -21533,7 +21533,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="BF81" t="n">
-        <v>0.6818432807724645</v>
+        <v>0.6818432807724641</v>
       </c>
       <c r="BG81" t="n">
         <v>1.84375</v>
@@ -21778,7 +21778,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="BF82" t="n">
-        <v>0.6470989296530397</v>
+        <v>0.6470989296530401</v>
       </c>
       <c r="BG82" t="n">
         <v>2.656716417910448</v>
@@ -22023,7 +22023,7 @@
         <v>1.0</v>
       </c>
       <c r="BF83" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BG83" t="n">
         <v>1.7446808510638299</v>
@@ -22268,7 +22268,7 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="BF84" t="n">
-        <v>0.7628503064972033</v>
+        <v>0.762850306497203</v>
       </c>
       <c r="BG84" t="n">
         <v>1.9069767441860466</v>
@@ -22505,7 +22505,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="BF85" t="n">
-        <v>0.6724618248782626</v>
+        <v>0.6724618248782623</v>
       </c>
       <c r="BG85" t="n">
         <v>2.6161137440758293</v>
@@ -22750,7 +22750,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="BF86" t="n">
-        <v>0.6919737827513827</v>
+        <v>0.6919737827513825</v>
       </c>
       <c r="BG86" t="n">
         <v>1.375</v>
@@ -22995,7 +22995,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="BF87" t="n">
-        <v>0.6286140034427034</v>
+        <v>0.6286140034427032</v>
       </c>
       <c r="BG87" t="n">
         <v>3.0714285714285716</v>
@@ -23240,7 +23240,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="BF88" t="n">
-        <v>0.48924340278679374</v>
+        <v>0.4892434027867935</v>
       </c>
       <c r="BG88" t="n">
         <v>7.4</v>
@@ -23485,7 +23485,7 @@
         <v>0.4403453689167976</v>
       </c>
       <c r="BF89" t="n">
-        <v>0.6463453681635187</v>
+        <v>0.6463453681635186</v>
       </c>
       <c r="BG89" t="n">
         <v>5.966101694915254</v>
@@ -23728,7 +23728,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="BF90" t="n">
-        <v>0.6669611518351826</v>
+        <v>0.6669611518351817</v>
       </c>
       <c r="BG90" t="n">
         <v>2.127659574468085</v>
@@ -24208,7 +24208,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="BF92" t="n">
-        <v>0.3286017616669815</v>
+        <v>0.3286017616669817</v>
       </c>
       <c r="BG92" t="n">
         <v>3.2222222222222223</v>
@@ -24453,7 +24453,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="BF93" t="n">
-        <v>0.6061860976384703</v>
+        <v>0.6061860976384706</v>
       </c>
       <c r="BG93" t="n">
         <v>6.856060606060606</v>
@@ -24698,7 +24698,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="BF94" t="n">
-        <v>0.6728497817027043</v>
+        <v>0.6728497817027038</v>
       </c>
       <c r="BG94" t="n">
         <v>4.3076923076923075</v>
@@ -24943,7 +24943,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="BF95" t="n">
-        <v>0.6794615015976845</v>
+        <v>0.6794615015976847</v>
       </c>
       <c r="BG95" t="n">
         <v>3.696969696969697</v>
@@ -25433,7 +25433,7 @@
         <v>0.8358585858585859</v>
       </c>
       <c r="BF97" t="n">
-        <v>0.7243148930851242</v>
+        <v>0.7243148930851241</v>
       </c>
       <c r="BG97" t="n">
         <v>2.27027027027027</v>
@@ -25678,7 +25678,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="BF98" t="n">
-        <v>0.7281974999558514</v>
+        <v>0.7281974999558515</v>
       </c>
       <c r="BG98" t="n">
         <v>2.5238095238095237</v>
@@ -26168,7 +26168,7 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="BF100" t="n">
-        <v>0.7659569903204871</v>
+        <v>0.7659569903204869</v>
       </c>
       <c r="BG100" t="n">
         <v>2.4489795918367347</v>
@@ -26413,7 +26413,7 @@
         <v>0.9305785123966942</v>
       </c>
       <c r="BF101" t="n">
-        <v>0.7717188152054522</v>
+        <v>0.7717188152054518</v>
       </c>
       <c r="BG101" t="n">
         <v>1.9565217391304348</v>
@@ -26658,7 +26658,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="BF102" t="n">
-        <v>0.6964914291399161</v>
+        <v>0.6964914291399164</v>
       </c>
       <c r="BG102" t="n">
         <v>1.5</v>
@@ -26903,7 +26903,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="BF103" t="n">
-        <v>0.7391624752530125</v>
+        <v>0.7391624752530123</v>
       </c>
       <c r="BG103" t="n">
         <v>2.5555555555555554</v>
@@ -27148,7 +27148,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="BF104" t="n">
-        <v>0.524856542673783</v>
+        <v>0.5248565426737827</v>
       </c>
       <c r="BG104" t="n">
         <v>5.855555555555555</v>
@@ -27393,7 +27393,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="BF105" t="n">
-        <v>0.5035429159959739</v>
+        <v>0.5035429159959743</v>
       </c>
       <c r="BG105" t="n">
         <v>4.011627906976744</v>
@@ -27638,7 +27638,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="BF106" t="n">
-        <v>0.5298498999513526</v>
+        <v>0.529849899951352</v>
       </c>
       <c r="BG106" t="n">
         <v>2.2045454545454546</v>
@@ -27883,7 +27883,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.5996258034517246</v>
+        <v>0.5996258034517243</v>
       </c>
       <c r="BG107" t="n">
         <v>1.588235294117647</v>
@@ -28128,7 +28128,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="BF108" t="n">
-        <v>0.5919173910257378</v>
+        <v>0.5919173910257385</v>
       </c>
       <c r="BG108" t="n">
         <v>2.7625</v>
@@ -28618,7 +28618,7 @@
         <v>1.0</v>
       </c>
       <c r="BF110" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BG110" t="n">
         <v>1.6923076923076923</v>
@@ -29108,7 +29108,7 @@
         <v>0.6081649831649831</v>
       </c>
       <c r="BF112" t="n">
-        <v>0.5885273831521238</v>
+        <v>0.5885273831521244</v>
       </c>
       <c r="BG112" t="n">
         <v>5.152941176470589</v>
@@ -29353,7 +29353,7 @@
         <v>0.8533333333333334</v>
       </c>
       <c r="BF113" t="n">
-        <v>0.7896680211760522</v>
+        <v>0.7896680211760521</v>
       </c>
       <c r="BG113" t="n">
         <v>1.3181818181818181</v>
@@ -29598,7 +29598,7 @@
         <v>0.7933884297520661</v>
       </c>
       <c r="BF114" t="n">
-        <v>0.7387592154231895</v>
+        <v>0.7387592154231897</v>
       </c>
       <c r="BG114" t="n">
         <v>1.72</v>
@@ -29843,7 +29843,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="BF115" t="n">
-        <v>0.6922340897759259</v>
+        <v>0.6922340897759255</v>
       </c>
       <c r="BG115" t="n">
         <v>1.8571428571428572</v>
@@ -30088,7 +30088,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="BF116" t="n">
-        <v>0.681729078784506</v>
+        <v>0.6817290787845062</v>
       </c>
       <c r="BG116" t="n">
         <v>3.4516129032258065</v>
@@ -30281,7 +30281,7 @@
         <v>0.44297520661157025</v>
       </c>
       <c r="BF117" t="n">
-        <v>0.6531555214579818</v>
+        <v>0.653155521457982</v>
       </c>
       <c r="BG117" t="n">
         <v>2.40625</v>
@@ -30771,7 +30771,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="BF119" t="n">
-        <v>0.6402035492877842</v>
+        <v>0.6402035492877843</v>
       </c>
       <c r="BG119" t="n">
         <v>4.785714285714286</v>
@@ -31261,7 +31261,7 @@
         <v>0.5147174254317112</v>
       </c>
       <c r="BF121" t="n">
-        <v>0.5581881001638294</v>
+        <v>0.5581881001638295</v>
       </c>
       <c r="BG121" t="n">
         <v>3.323943661971831</v>
@@ -31506,7 +31506,7 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="BF122" t="n">
-        <v>0.6462097425793843</v>
+        <v>0.6462097425793839</v>
       </c>
       <c r="BG122" t="n">
         <v>2.5</v>
@@ -31994,7 +31994,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="BF124" t="n">
-        <v>0.575713430035292</v>
+        <v>0.5757134300352922</v>
       </c>
       <c r="BG124" t="n">
         <v>6.988095238095238</v>
@@ -32239,7 +32239,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="BF125" t="n">
-        <v>0.6400157487287917</v>
+        <v>0.6400157487287923</v>
       </c>
       <c r="BG125" t="n">
         <v>1.3888888888888888</v>
@@ -32484,7 +32484,7 @@
         <v>0.4577020202020202</v>
       </c>
       <c r="BF126" t="n">
-        <v>0.6448484920261272</v>
+        <v>0.6448484920261269</v>
       </c>
       <c r="BG126" t="n">
         <v>2.925925925925926</v>
@@ -32729,7 +32729,7 @@
         <v>0.6313131313131313</v>
       </c>
       <c r="BF127" t="n">
-        <v>0.6894245115331004</v>
+        <v>0.6894245115331002</v>
       </c>
       <c r="BG127" t="n">
         <v>2.2857142857142856</v>
@@ -33215,7 +33215,7 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="BF129" t="n">
-        <v>0.6547605022189079</v>
+        <v>0.6547605022189077</v>
       </c>
       <c r="BG129" t="n">
         <v>1.56</v>
@@ -33458,7 +33458,7 @@
         <v>0.1905982905982906</v>
       </c>
       <c r="BF130" t="n">
-        <v>0.5231772525081392</v>
+        <v>0.5231772525081396</v>
       </c>
       <c r="BG130" t="n">
         <v>2.2058823529411766</v>
@@ -33653,7 +33653,7 @@
         <v>0.35374579124579125</v>
       </c>
       <c r="BF131" t="n">
-        <v>0.5153779723093673</v>
+        <v>0.5153779723093671</v>
       </c>
       <c r="BG131" t="n">
         <v>3.076923076923077</v>

--- a/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
+++ b/t2_CAMs/dataPreperation_step1/outputs/questionnaireCAMs.xlsx
@@ -2192,7 +2192,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.7403856875758611</v>
+        <v>0.7403856875758608</v>
       </c>
       <c r="BG2" t="n">
         <v>2.1333333333333333</v>
@@ -2246,7 +2246,7 @@
         <v>0.060498220640569096</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.3253856942496493</v>
+        <v>-0.3253856942496497</v>
       </c>
       <c r="BY2" t="n">
         <v>8.0</v>
@@ -2437,7 +2437,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.7039631414544363</v>
+        <v>0.7039631414544361</v>
       </c>
       <c r="BG3" t="n">
         <v>3.5789473684210527</v>
@@ -2682,7 +2682,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.6459729144432846</v>
+        <v>0.6459729144432848</v>
       </c>
       <c r="BG4" t="n">
         <v>4.181818181818182</v>
@@ -2736,7 +2736,7 @@
         <v>0.23076923076922995</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.5527777777777781</v>
+        <v>-0.5527777777777784</v>
       </c>
       <c r="BY4" t="n">
         <v>5.0</v>
@@ -2927,7 +2927,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.7256314504280087</v>
+        <v>0.7256314504280086</v>
       </c>
       <c r="BG5" t="n">
         <v>4.517241379310345</v>
@@ -2981,7 +2981,7 @@
         <v>0.13253012048192697</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0.24414715719063534</v>
+        <v>-0.2441471571906356</v>
       </c>
       <c r="BY5" t="n">
         <v>5.0</v>
@@ -3172,7 +3172,7 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5821576144967794</v>
+        <v>0.5821576144967795</v>
       </c>
       <c r="BG6" t="n">
         <v>4.035714285714286</v>
@@ -3226,7 +3226,7 @@
         <v>-0.3506493506493507</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.17293233082706774</v>
+        <v>-0.172932330827067</v>
       </c>
       <c r="BY6" t="n">
         <v>4.0</v>
@@ -3417,7 +3417,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.7730948816876565</v>
+        <v>0.7730948816876563</v>
       </c>
       <c r="BG7" t="n">
         <v>3.391304347826087</v>
@@ -3907,7 +3907,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.500192378324205</v>
+        <v>0.5001923783242046</v>
       </c>
       <c r="BG9" t="n">
         <v>3.017543859649123</v>
@@ -4152,7 +4152,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.666196636655317</v>
+        <v>0.6661966366553173</v>
       </c>
       <c r="BG10" t="n">
         <v>6.016949152542373</v>
@@ -4206,7 +4206,7 @@
         <v>-0.3636363636363669</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.22448979591836785</v>
+        <v>-0.22448979591836743</v>
       </c>
       <c r="BY10" t="n">
         <v>3.0</v>
@@ -4451,7 +4451,7 @@
         <v>-0.04557640750670103</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.06306306306306307</v>
+        <v>0.06306306306306309</v>
       </c>
       <c r="BY11" t="n">
         <v>4.0</v>
@@ -4642,7 +4642,7 @@
         <v>0.9488636363636364</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.7643437522066278</v>
+        <v>0.7643437522066275</v>
       </c>
       <c r="BG12" t="n">
         <v>2.3902439024390243</v>
@@ -4696,7 +4696,7 @@
         <v>-0.7333333333333338</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.804705882352941</v>
+        <v>-0.8047058823529413</v>
       </c>
       <c r="BY12" t="n">
         <v>11.0</v>
@@ -4887,7 +4887,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.689824832853583</v>
+        <v>0.6898248328535829</v>
       </c>
       <c r="BG13" t="n">
         <v>3.7260273972602738</v>
@@ -4941,7 +4941,7 @@
         <v>-0.38518518518518435</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.5165794066317627</v>
+        <v>-0.5165794066317622</v>
       </c>
       <c r="BY13" t="n">
         <v>3.0</v>
@@ -5132,7 +5132,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.6445011396907582</v>
+        <v>0.644501139690758</v>
       </c>
       <c r="BG14" t="n">
         <v>4.5</v>
@@ -5377,7 +5377,7 @@
         <v>1.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BG15" t="n">
         <v>1.625</v>
@@ -5867,7 +5867,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.7094200825169514</v>
+        <v>0.7094200825169518</v>
       </c>
       <c r="BG17" t="n">
         <v>3.425925925925926</v>
@@ -5921,7 +5921,7 @@
         <v>0.5403225806451615</v>
       </c>
       <c r="BX17" t="n">
-        <v>-0.46527777777777773</v>
+        <v>-0.46527777777777796</v>
       </c>
       <c r="BY17" t="n">
         <v>11.0</v>
@@ -6112,7 +6112,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.6384209554272581</v>
+        <v>0.6384209554272583</v>
       </c>
       <c r="BG18" t="n">
         <v>5.568181818181818</v>
@@ -6411,7 +6411,7 @@
         <v>0.4892473118279571</v>
       </c>
       <c r="BX19" t="n">
-        <v>-0.13586956521739185</v>
+        <v>-0.1358695652173923</v>
       </c>
       <c r="BY19" t="n">
         <v>5.0</v>
@@ -6602,7 +6602,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.5836291076644476</v>
+        <v>0.583629107664448</v>
       </c>
       <c r="BG20" t="n">
         <v>5.4520547945205475</v>
@@ -6656,7 +6656,7 @@
         <v>-0.1274509803921497</v>
       </c>
       <c r="BX20" t="n">
-        <v>-0.02678571428571349</v>
+        <v>-0.026785714285715616</v>
       </c>
       <c r="BY20" t="n">
         <v>2.0</v>
@@ -6847,7 +6847,7 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.7456299505271813</v>
+        <v>0.745629950527181</v>
       </c>
       <c r="BG21" t="n">
         <v>5.257142857142857</v>
@@ -6901,7 +6901,7 @@
         <v>0.25000000000000083</v>
       </c>
       <c r="BX21" t="n">
-        <v>-0.06578947368421083</v>
+        <v>-0.06578947368421025</v>
       </c>
       <c r="BY21" t="n">
         <v>5.0</v>
@@ -7146,7 +7146,7 @@
         <v>-0.309352517985611</v>
       </c>
       <c r="BX22" t="n">
-        <v>-0.464546056991385</v>
+        <v>-0.4645460569913849</v>
       </c>
       <c r="BY22" t="n">
         <v>8.0</v>
@@ -7337,7 +7337,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.6305888847153063</v>
+        <v>0.6305888847153068</v>
       </c>
       <c r="BG23" t="n">
         <v>3.0833333333333335</v>
@@ -7391,7 +7391,7 @@
         <v>0.5128205128205103</v>
       </c>
       <c r="BX23" t="n">
-        <v>-0.23021582733813</v>
+        <v>-0.23021582733812843</v>
       </c>
       <c r="BY23" t="n">
         <v>5.0</v>
@@ -7582,7 +7582,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.7562500316434444</v>
+        <v>0.7562500316434445</v>
       </c>
       <c r="BG24" t="n">
         <v>2.0943396226415096</v>
@@ -7636,7 +7636,7 @@
         <v>-0.0029850746268649912</v>
       </c>
       <c r="BX24" t="n">
-        <v>-0.37978339350180496</v>
+        <v>-0.37978339350180446</v>
       </c>
       <c r="BY24" t="n">
         <v>6.0</v>
@@ -7827,7 +7827,7 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.5604292923717348</v>
+        <v>0.5604292923717349</v>
       </c>
       <c r="BG25" t="n">
         <v>2.1327433628318584</v>
@@ -8072,7 +8072,7 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.7848416809344697</v>
+        <v>0.7848416809344699</v>
       </c>
       <c r="BG26" t="n">
         <v>3.7674418604651163</v>
@@ -8126,7 +8126,7 @@
         <v>0.05489260143198313</v>
       </c>
       <c r="BX26" t="n">
-        <v>-0.193702290076336</v>
+        <v>-0.19370229007633635</v>
       </c>
       <c r="BY26" t="n">
         <v>8.0</v>
@@ -8562,7 +8562,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.616507512323556</v>
+        <v>0.6165075123235559</v>
       </c>
       <c r="BG28" t="n">
         <v>4.67741935483871</v>
@@ -8616,7 +8616,7 @@
         <v>-0.1333333333333356</v>
       </c>
       <c r="BX28" t="n">
-        <v>-0.31933842239185756</v>
+        <v>-0.3193384223918579</v>
       </c>
       <c r="BY28" t="n">
         <v>5.0</v>
@@ -8807,7 +8807,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.6452743060553271</v>
+        <v>0.6452743060553275</v>
       </c>
       <c r="BG29" t="n">
         <v>6.611111111111111</v>
@@ -8861,7 +8861,7 @@
         <v>-0.5168539325842689</v>
       </c>
       <c r="BX29" t="n">
-        <v>-0.40816326530612274</v>
+        <v>-0.40816326530612196</v>
       </c>
       <c r="BY29" t="n">
         <v>4.0</v>
@@ -9052,7 +9052,7 @@
         <v>0.6981946624803768</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.7545868038477972</v>
+        <v>0.7545868038477974</v>
       </c>
       <c r="BG30" t="n">
         <v>2.4310344827586206</v>
@@ -9106,7 +9106,7 @@
         <v>0.24999999999999906</v>
       </c>
       <c r="BX30" t="n">
-        <v>-0.3480801335559264</v>
+        <v>-0.3480801335559265</v>
       </c>
       <c r="BY30" t="n">
         <v>7.0</v>
@@ -9351,7 +9351,7 @@
         <v>-0.3827160493827148</v>
       </c>
       <c r="BX31" t="n">
-        <v>-0.2480620155038759</v>
+        <v>-0.2480620155038754</v>
       </c>
       <c r="BY31" t="n">
         <v>7.0</v>
@@ -9542,7 +9542,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.6614982610535999</v>
+        <v>0.6614982610536001</v>
       </c>
       <c r="BG32" t="n">
         <v>3.28</v>
@@ -9841,7 +9841,7 @@
         <v>-0.08333333333333542</v>
       </c>
       <c r="BX33" t="n">
-        <v>-0.2481997119539121</v>
+        <v>-0.24819971195391283</v>
       </c>
       <c r="BY33" t="n">
         <v>8.0</v>
@@ -10032,7 +10032,7 @@
         <v>0.698961937716263</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.7655454620458136</v>
+        <v>0.7655454620458135</v>
       </c>
       <c r="BG34" t="n">
         <v>2.96875</v>
@@ -10086,7 +10086,7 @@
         <v>-0.002531645569622271</v>
       </c>
       <c r="BX34" t="n">
-        <v>-0.2099056603773584</v>
+        <v>-0.20990566037735817</v>
       </c>
       <c r="BY34" t="n">
         <v>6.0</v>
@@ -10277,7 +10277,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.6794615015976846</v>
+        <v>0.6794615015976848</v>
       </c>
       <c r="BG35" t="n">
         <v>3.55</v>
@@ -10331,7 +10331,7 @@
         <v>-0.5247524752475208</v>
       </c>
       <c r="BX35" t="n">
-        <v>-0.07317073170731705</v>
+        <v>-0.07317073170731846</v>
       </c>
       <c r="BY35" t="n">
         <v>4.0</v>
@@ -10576,7 +10576,7 @@
         <v>0.3519379844961237</v>
       </c>
       <c r="BX36" t="n">
-        <v>-0.43116883116883137</v>
+        <v>-0.43116883116883215</v>
       </c>
       <c r="BY36" t="n">
         <v>5.0</v>
@@ -10821,7 +10821,7 @@
         <v>-0.36802973977695136</v>
       </c>
       <c r="BX37" t="n">
-        <v>-0.12888888888888894</v>
+        <v>-0.12888888888888878</v>
       </c>
       <c r="BY37" t="n">
         <v>8.0</v>
@@ -11012,7 +11012,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.6948826958819588</v>
+        <v>0.6948826958819586</v>
       </c>
       <c r="BG38" t="n">
         <v>6.519230769230769</v>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="BW39"/>
       <c r="BX39" t="n">
-        <v>-0.6584362139917692</v>
+        <v>-0.6584362139917691</v>
       </c>
       <c r="BY39" t="n">
         <v>3.0</v>
@@ -11554,7 +11554,7 @@
         <v>0.11111111111110954</v>
       </c>
       <c r="BX40" t="n">
-        <v>-0.3277525022747954</v>
+        <v>-0.32775250227479497</v>
       </c>
       <c r="BY40" t="n">
         <v>10.0</v>
@@ -11745,7 +11745,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.7067166389319386</v>
+        <v>0.7067166389319383</v>
       </c>
       <c r="BG41" t="n">
         <v>1.8387096774193548</v>
@@ -11990,7 +11990,7 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.7472947271454687</v>
+        <v>0.7472947271454689</v>
       </c>
       <c r="BG42" t="n">
         <v>4.131578947368421</v>
@@ -12044,7 +12044,7 @@
         <v>0.12359550561797865</v>
       </c>
       <c r="BX42" t="n">
-        <v>-0.26729559748427667</v>
+        <v>-0.26729559748427617</v>
       </c>
       <c r="BY42" t="n">
         <v>6.0</v>
@@ -12235,7 +12235,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="BF43" t="n">
-        <v>0.6814509521019758</v>
+        <v>0.6814509521019754</v>
       </c>
       <c r="BG43" t="n">
         <v>1.4838709677419355</v>
@@ -12289,7 +12289,7 @@
         <v>-0.2666666666666672</v>
       </c>
       <c r="BX43" t="n">
-        <v>-0.19847743338771093</v>
+        <v>-0.19847743338771126</v>
       </c>
       <c r="BY43" t="n">
         <v>8.0</v>
@@ -12534,7 +12534,7 @@
         <v>0.1666666666666683</v>
       </c>
       <c r="BX44" t="n">
-        <v>-0.35285505124451</v>
+        <v>-0.35285505124450767</v>
       </c>
       <c r="BY44" t="n">
         <v>7.0</v>
@@ -12779,7 +12779,7 @@
         <v>-0.10091743119266035</v>
       </c>
       <c r="BX45" t="n">
-        <v>-0.12340425531914963</v>
+        <v>-0.12340425531914864</v>
       </c>
       <c r="BY45" t="n">
         <v>5.0</v>
@@ -12970,7 +12970,7 @@
         <v>0.31786948853615515</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.6109976549649963</v>
+        <v>0.6109976549649964</v>
       </c>
       <c r="BG46" t="n">
         <v>2.888</v>
@@ -13215,7 +13215,7 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="BF47" t="n">
-        <v>0.7117226763030793</v>
+        <v>0.7117226763030792</v>
       </c>
       <c r="BG47" t="n">
         <v>4.1</v>
@@ -13269,7 +13269,7 @@
         <v>-0.4117647058823519</v>
       </c>
       <c r="BX47" t="n">
-        <v>-0.6380697050938341</v>
+        <v>-0.638069705093834</v>
       </c>
       <c r="BY47" t="n">
         <v>12.0</v>
@@ -13460,7 +13460,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="BF48" t="n">
-        <v>0.7584884506513881</v>
+        <v>0.758488450651388</v>
       </c>
       <c r="BG48" t="n">
         <v>2.7142857142857144</v>
@@ -13514,7 +13514,7 @@
         <v>-0.5145631067961167</v>
       </c>
       <c r="BX48" t="n">
-        <v>-0.6614210777300907</v>
+        <v>-0.6614210777300906</v>
       </c>
       <c r="BY48" t="n">
         <v>9.0</v>
@@ -14004,7 +14004,7 @@
         <v>0.09430051813471563</v>
       </c>
       <c r="BX50" t="n">
-        <v>-0.37931034482758624</v>
+        <v>-0.3793103448275861</v>
       </c>
       <c r="BY50" t="n">
         <v>10.0</v>
@@ -14195,7 +14195,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="BF51" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="BG51" t="n">
         <v>1.52</v>
@@ -14249,7 +14249,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="BX51" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="BY51" t="n">
         <v>2.0</v>
@@ -14739,7 +14739,7 @@
         <v>-0.06403940886699572</v>
       </c>
       <c r="BX53" t="n">
-        <v>-0.6112621359223303</v>
+        <v>-0.61126213592233</v>
       </c>
       <c r="BY53" t="n">
         <v>11.0</v>
@@ -15175,7 +15175,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.7608344969958327</v>
+        <v>0.7608344969958325</v>
       </c>
       <c r="BG55" t="n">
         <v>3.1621621621621623</v>
@@ -15229,7 +15229,7 @@
         <v>-0.00934579439252423</v>
       </c>
       <c r="BX55" t="n">
-        <v>-0.479638009049774</v>
+        <v>-0.47963800904977416</v>
       </c>
       <c r="BY55" t="n">
         <v>7.0</v>
@@ -15420,7 +15420,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.5579632877250358</v>
+        <v>0.5579632877250356</v>
       </c>
       <c r="BG56" t="n">
         <v>4.096774193548387</v>
@@ -15474,7 +15474,7 @@
         <v>0.16953907815631106</v>
       </c>
       <c r="BX56" t="n">
-        <v>-0.25148514851485176</v>
+        <v>-0.25148514851485193</v>
       </c>
       <c r="BY56" t="n">
         <v>6.0</v>
@@ -15665,7 +15665,7 @@
         <v>1.0</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.7683375209644598</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="BG57" t="n">
         <v>2.1379310344827585</v>
@@ -15964,7 +15964,7 @@
         <v>-0.5124653739612182</v>
       </c>
       <c r="BX58" t="n">
-        <v>-0.48477157360406076</v>
+        <v>-0.4847715736040605</v>
       </c>
       <c r="BY58" t="n">
         <v>5.0</v>
@@ -16155,7 +16155,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.7467269103335876</v>
+        <v>0.7467269103335878</v>
       </c>
       <c r="BG59" t="n">
         <v>2.727272727272727</v>
@@ -16209,7 +16209,7 @@
         <v>0.45034642032332595</v>
       </c>
       <c r="BX59" t="n">
-        <v>-0.16315789473684197</v>
+        <v>-0.16315789473684272</v>
       </c>
       <c r="BY59" t="n">
         <v>5.0</v>
@@ -16400,7 +16400,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="BF60" t="n">
-        <v>0.6864100233833474</v>
+        <v>0.6864100233833473</v>
       </c>
       <c r="BG60" t="n">
         <v>2.7222222222222223</v>
@@ -16645,7 +16645,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="BF61" t="n">
-        <v>0.6096235412027471</v>
+        <v>0.609623541202747</v>
       </c>
       <c r="BG61" t="n">
         <v>3.408333333333333</v>
@@ -16699,7 +16699,7 @@
         <v>0.6630434782608674</v>
       </c>
       <c r="BX61" t="n">
-        <v>-0.29166666666666674</v>
+        <v>-0.2916666666666669</v>
       </c>
       <c r="BY61" t="n">
         <v>6.0</v>
@@ -16890,7 +16890,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="BF62" t="n">
-        <v>0.6303361469402881</v>
+        <v>0.6303361469402875</v>
       </c>
       <c r="BG62" t="n">
         <v>2.65</v>
@@ -16944,7 +16944,7 @@
         <v>-0.012987012987015519</v>
       </c>
       <c r="BX62" t="n">
-        <v>-0.13043478260869637</v>
+        <v>-0.1304347826086945</v>
       </c>
       <c r="BY62" t="n">
         <v>3.0</v>
@@ -17135,7 +17135,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="BF63" t="n">
-        <v>0.7419796269483417</v>
+        <v>0.7419796269483413</v>
       </c>
       <c r="BG63" t="n">
         <v>1.6875</v>
@@ -17380,7 +17380,7 @@
         <v>0.7915456305979182</v>
       </c>
       <c r="BF64" t="n">
-        <v>0.7704379740217014</v>
+        <v>0.7704379740217012</v>
       </c>
       <c r="BG64" t="n">
         <v>4.157407407407407</v>
@@ -17434,7 +17434,7 @@
         <v>-0.12806539509536743</v>
       </c>
       <c r="BX64" t="n">
-        <v>-0.3315128345166575</v>
+        <v>-0.3315128345166582</v>
       </c>
       <c r="BY64" t="n">
         <v>10.0</v>
@@ -17625,7 +17625,7 @@
         <v>0.3586456278763971</v>
       </c>
       <c r="BF65" t="n">
-        <v>0.6591804531074172</v>
+        <v>0.6591804531074174</v>
       </c>
       <c r="BG65" t="n">
         <v>5.34</v>
@@ -17679,7 +17679,7 @@
         <v>-0.003802281368821995</v>
       </c>
       <c r="BX65" t="n">
-        <v>-0.3267882187938283</v>
+        <v>-0.3267882187938289</v>
       </c>
       <c r="BY65" t="n">
         <v>5.0</v>
@@ -17870,7 +17870,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.7670059672747958</v>
+        <v>0.7670059672747954</v>
       </c>
       <c r="BG66" t="n">
         <v>4.764705882352941</v>
@@ -17924,7 +17924,7 @@
         <v>0.505300353356888</v>
       </c>
       <c r="BX66" t="n">
-        <v>-0.9444444444444444</v>
+        <v>-0.9444444444444448</v>
       </c>
       <c r="BY66" t="n">
         <v>2.0</v>
@@ -18115,7 +18115,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.6518436414268677</v>
+        <v>0.651843641426868</v>
       </c>
       <c r="BG67" t="n">
         <v>3.806451612903226</v>
@@ -18360,7 +18360,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="BF68" t="n">
-        <v>0.6487310688403937</v>
+        <v>0.6487310688403936</v>
       </c>
       <c r="BG68" t="n">
         <v>2.967741935483871</v>
@@ -18414,7 +18414,7 @@
         <v>0.8095238095238102</v>
       </c>
       <c r="BX68" t="n">
-        <v>-0.4313099041533548</v>
+        <v>-0.4313099041533542</v>
       </c>
       <c r="BY68" t="n">
         <v>4.0</v>
@@ -18605,7 +18605,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="BF69" t="n">
-        <v>0.6972948089468822</v>
+        <v>0.6972948089468821</v>
       </c>
       <c r="BG69" t="n">
         <v>4.645161290322581</v>
@@ -18659,7 +18659,7 @@
         <v>0.09144542772861512</v>
       </c>
       <c r="BX69" t="n">
-        <v>-0.41830065359477103</v>
+        <v>-0.41830065359477187</v>
       </c>
       <c r="BY69" t="n">
         <v>4.0</v>
@@ -18850,7 +18850,7 @@
         <v>0.4751683501683501</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.6995900777392827</v>
+        <v>0.699590077739283</v>
       </c>
       <c r="BG70" t="n">
         <v>1.8157894736842106</v>
@@ -18904,7 +18904,7 @@
         <v>-0.062500000000001</v>
       </c>
       <c r="BX70" t="n">
-        <v>-0.16031746031746022</v>
+        <v>-0.16031746031746116</v>
       </c>
       <c r="BY70" t="n">
         <v>6.0</v>
@@ -19095,7 +19095,7 @@
         <v>1.0</v>
       </c>
       <c r="BF71" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="BG71" t="n">
         <v>4.425531914893617</v>
@@ -19340,7 +19340,7 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="BF72" t="n">
-        <v>0.4150188528908394</v>
+        <v>0.41501885289083923</v>
       </c>
       <c r="BG72" t="n">
         <v>4.8977272727272725</v>
@@ -19583,7 +19583,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="BF73" t="n">
-        <v>0.5890297335340975</v>
+        <v>0.589029733534097</v>
       </c>
       <c r="BG73" t="n">
         <v>6.423076923076923</v>
@@ -19637,7 +19637,7 @@
         <v>-0.23809523809523686</v>
       </c>
       <c r="BX73" t="n">
-        <v>-0.3617472434266336</v>
+        <v>-0.36174724342663295</v>
       </c>
       <c r="BY73" t="n">
         <v>10.0</v>
@@ -19828,7 +19828,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="BF74" t="n">
-        <v>0.654107567669576</v>
+        <v>0.6541075676695762</v>
       </c>
       <c r="BG74" t="n">
         <v>5.931818181818182</v>
@@ -19882,7 +19882,7 @@
         <v>-0.11111111111110689</v>
       </c>
       <c r="BX74" t="n">
-        <v>-0.21794871794871837</v>
+        <v>-0.2179487179487189</v>
       </c>
       <c r="BY74" t="n">
         <v>4.0</v>
@@ -20073,7 +20073,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="BF75" t="n">
-        <v>0.741952649166942</v>
+        <v>0.7419526491669419</v>
       </c>
       <c r="BG75" t="n">
         <v>3.9622641509433962</v>
@@ -20318,7 +20318,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="BF76" t="n">
-        <v>0.6903631718354523</v>
+        <v>0.6903631718354526</v>
       </c>
       <c r="BG76" t="n">
         <v>1.72</v>
@@ -20372,7 +20372,7 @@
         <v>0.17241379310344807</v>
       </c>
       <c r="BX76" t="n">
-        <v>-0.07784431137724564</v>
+        <v>-0.0778443113772446</v>
       </c>
       <c r="BY76" t="n">
         <v>4.0</v>
@@ -20617,7 +20617,7 @@
         <v>0.16740088105726927</v>
       </c>
       <c r="BX77" t="n">
-        <v>-0.3017319963536909</v>
+        <v>-0.30173199635369097</v>
       </c>
       <c r="BY77" t="n">
         <v>2.0</v>
@@ -21053,7 +21053,7 @@
         <v>0.8421717171717171</v>
       </c>
       <c r="BF79" t="n">
-        <v>0.7633270405226223</v>
+        <v>0.763327040522622</v>
       </c>
       <c r="BG79" t="n">
         <v>3.48</v>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="BW79"/>
       <c r="BX79" t="n">
-        <v>-0.6560885608856084</v>
+        <v>-0.6560885608856087</v>
       </c>
       <c r="BY79"/>
       <c r="BZ79"/>
@@ -21288,7 +21288,7 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="BF80" t="n">
-        <v>0.6929632483024004</v>
+        <v>0.6929632483024012</v>
       </c>
       <c r="BG80" t="n">
         <v>1.7272727272727273</v>
@@ -21342,7 +21342,7 @@
         <v>-0.04761904761904616</v>
       </c>
       <c r="BX80" t="n">
-        <v>-0.16260162601626008</v>
+        <v>-0.1626016260162616</v>
       </c>
       <c r="BY80" t="n">
         <v>3.0</v>
@@ -21587,7 +21587,7 @@
         <v>-0.25</v>
       </c>
       <c r="BX81" t="n">
-        <v>-0.17799352750809064</v>
+        <v>-0.17799352750809103</v>
       </c>
       <c r="BY81" t="n">
         <v>5.0</v>
@@ -21778,7 +21778,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="BF82" t="n">
-        <v>0.6470989296530401</v>
+        <v>0.6470989296530397</v>
       </c>
       <c r="BG82" t="n">
         <v>2.656716417910448</v>
@@ -21832,7 +21832,7 @@
         <v>0.12</v>
       </c>
       <c r="BX82" t="n">
-        <v>-0.3955715140634348</v>
+        <v>-0.3955715140634367</v>
       </c>
       <c r="BY82" t="n">
         <v>5.0</v>
@@ -22023,7 +22023,7 @@
         <v>1.0</v>
       </c>
       <c r="BF83" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="BG83" t="n">
         <v>1.7446808510638299</v>
@@ -22268,7 +22268,7 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="BF84" t="n">
-        <v>0.762850306497203</v>
+        <v>0.7628503064972033</v>
       </c>
       <c r="BG84" t="n">
         <v>1.9069767441860466</v>
@@ -22322,7 +22322,7 @@
         <v>-0.6956521739130426</v>
       </c>
       <c r="BX84" t="n">
-        <v>-0.582236842105263</v>
+        <v>-0.5822368421052636</v>
       </c>
       <c r="BY84"/>
       <c r="BZ84"/>
@@ -22505,7 +22505,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="BF85" t="n">
-        <v>0.6724618248782623</v>
+        <v>0.6724618248782624</v>
       </c>
       <c r="BG85" t="n">
         <v>2.6161137440758293</v>
@@ -22559,7 +22559,7 @@
         <v>-0.23047619047619056</v>
       </c>
       <c r="BX85" t="n">
-        <v>-0.3609565829017203</v>
+        <v>-0.36095658290171984</v>
       </c>
       <c r="BY85" t="n">
         <v>13.0</v>
@@ -22750,7 +22750,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="BF86" t="n">
-        <v>0.6919737827513825</v>
+        <v>0.6919737827513827</v>
       </c>
       <c r="BG86" t="n">
         <v>1.375</v>
@@ -22804,7 +22804,7 @@
         <v>0.44099378881987417</v>
       </c>
       <c r="BX86" t="n">
-        <v>-0.2585616438356163</v>
+        <v>-0.2585616438356157</v>
       </c>
       <c r="BY86" t="n">
         <v>5.0</v>
@@ -22995,7 +22995,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="BF87" t="n">
-        <v>0.6286140034427032</v>
+        <v>0.6286140034427037</v>
       </c>
       <c r="BG87" t="n">
         <v>3.0714285714285716</v>
@@ -23049,7 +23049,7 @@
         <v>0.29014084507042254</v>
       </c>
       <c r="BX87" t="n">
-        <v>-0.20491803278688497</v>
+        <v>-0.2049180327868867</v>
       </c>
       <c r="BY87" t="n">
         <v>4.0</v>
@@ -23240,7 +23240,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="BF88" t="n">
-        <v>0.4892434027867935</v>
+        <v>0.4892434027867939</v>
       </c>
       <c r="BG88" t="n">
         <v>7.4</v>
@@ -23294,7 +23294,7 @@
         <v>-0.05882352941176022</v>
       </c>
       <c r="BX88" t="n">
-        <v>-0.0037174721189577836</v>
+        <v>-0.0037174721189577875</v>
       </c>
       <c r="BY88" t="n">
         <v>3.0</v>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="BW89"/>
       <c r="BX89" t="n">
-        <v>-0.1282798833819244</v>
+        <v>-0.1282798833819248</v>
       </c>
       <c r="BY89" t="n">
         <v>5.0</v>
@@ -23728,7 +23728,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="BF90" t="n">
-        <v>0.6669611518351817</v>
+        <v>0.666961151835182</v>
       </c>
       <c r="BG90" t="n">
         <v>2.127659574468085</v>
@@ -23780,7 +23780,7 @@
       </c>
       <c r="BW90"/>
       <c r="BX90" t="n">
-        <v>-0.17782909930715926</v>
+        <v>-0.1778290993071603</v>
       </c>
       <c r="BY90"/>
       <c r="BZ90"/>
@@ -24017,7 +24017,7 @@
         <v>-0.34955185659411153</v>
       </c>
       <c r="BX91" t="n">
-        <v>-0.5216434336023477</v>
+        <v>-0.5216434336023476</v>
       </c>
       <c r="BY91" t="n">
         <v>10.0</v>
@@ -24208,7 +24208,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="BF92" t="n">
-        <v>0.3286017616669817</v>
+        <v>0.328601761666982</v>
       </c>
       <c r="BG92" t="n">
         <v>3.2222222222222223</v>
@@ -24453,7 +24453,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="BF93" t="n">
-        <v>0.6061860976384706</v>
+        <v>0.6061860976384703</v>
       </c>
       <c r="BG93" t="n">
         <v>6.856060606060606</v>
@@ -24507,7 +24507,7 @@
         <v>0.06042553191489376</v>
       </c>
       <c r="BX93" t="n">
-        <v>-0.4539205155746513</v>
+        <v>-0.4539205155746517</v>
       </c>
       <c r="BY93" t="n">
         <v>10.0</v>
@@ -24698,7 +24698,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="BF94" t="n">
-        <v>0.6728497817027038</v>
+        <v>0.6728497817027044</v>
       </c>
       <c r="BG94" t="n">
         <v>4.3076923076923075</v>
@@ -24943,7 +24943,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="BF95" t="n">
-        <v>0.6794615015976847</v>
+        <v>0.6794615015976848</v>
       </c>
       <c r="BG95" t="n">
         <v>3.696969696969697</v>
@@ -24997,7 +24997,7 @@
         <v>0.11290322580645329</v>
       </c>
       <c r="BX95" t="n">
-        <v>-0.07317073170731705</v>
+        <v>-0.07317073170731846</v>
       </c>
       <c r="BY95" t="n">
         <v>3.0</v>
@@ -25188,7 +25188,7 @@
         <v>0.6382575757575758</v>
       </c>
       <c r="BF96" t="n">
-        <v>0.7514790618967372</v>
+        <v>0.7514790618967374</v>
       </c>
       <c r="BG96" t="n">
         <v>2.227272727272727</v>
@@ -25242,7 +25242,7 @@
         <v>0.048543689320387495</v>
       </c>
       <c r="BX96" t="n">
-        <v>-0.6833667334669334</v>
+        <v>-0.6833667334669337</v>
       </c>
       <c r="BY96" t="n">
         <v>3.0</v>
@@ -25433,7 +25433,7 @@
         <v>0.8358585858585859</v>
       </c>
       <c r="BF97" t="n">
-        <v>0.7243148930851241</v>
+        <v>0.7243148930851245</v>
       </c>
       <c r="BG97" t="n">
         <v>2.27027027027027</v>
@@ -25487,7 +25487,7 @@
         <v>0.0836879432624113</v>
       </c>
       <c r="BX97" t="n">
-        <v>-0.5475797579757974</v>
+        <v>-0.5475797579757978</v>
       </c>
       <c r="BY97" t="n">
         <v>10.0</v>
@@ -25678,7 +25678,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="BF98" t="n">
-        <v>0.7281974999558515</v>
+        <v>0.7281974999558517</v>
       </c>
       <c r="BG98" t="n">
         <v>2.5238095238095237</v>
@@ -25732,7 +25732,7 @@
         <v>0.08196721311475405</v>
       </c>
       <c r="BX98" t="n">
-        <v>-0.18954248366013055</v>
+        <v>-0.18954248366013027</v>
       </c>
       <c r="BY98" t="n">
         <v>6.0</v>
@@ -25923,7 +25923,7 @@
         <v>1.0</v>
       </c>
       <c r="BF99" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="BG99" t="n">
         <v>1.0</v>
@@ -26222,7 +26222,7 @@
         <v>-0.17419354838709644</v>
       </c>
       <c r="BX100" t="n">
-        <v>-0.8935950413223142</v>
+        <v>-0.8935950413223139</v>
       </c>
       <c r="BY100" t="n">
         <v>12.0</v>
@@ -26413,7 +26413,7 @@
         <v>0.9305785123966942</v>
       </c>
       <c r="BF101" t="n">
-        <v>0.7717188152054518</v>
+        <v>0.7717188152054523</v>
       </c>
       <c r="BG101" t="n">
         <v>1.9565217391304348</v>
@@ -26467,7 +26467,7 @@
         <v>-0.2643678160919544</v>
       </c>
       <c r="BX101" t="n">
-        <v>-0.7262313860252004</v>
+        <v>-0.7262313860252</v>
       </c>
       <c r="BY101" t="n">
         <v>9.0</v>
@@ -26712,7 +26712,7 @@
         <v>-0.12000000000000316</v>
       </c>
       <c r="BX102" t="n">
-        <v>-0.15923566878980935</v>
+        <v>-0.1592356687898095</v>
       </c>
       <c r="BY102" t="n">
         <v>4.0</v>
@@ -26957,7 +26957,7 @@
         <v>-0.3054393305439333</v>
       </c>
       <c r="BX103" t="n">
-        <v>-0.08333333333333326</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="BY103" t="n">
         <v>5.0</v>
@@ -27148,7 +27148,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="BF104" t="n">
-        <v>0.5248565426737827</v>
+        <v>0.5248565426737828</v>
       </c>
       <c r="BG104" t="n">
         <v>5.855555555555555</v>
@@ -27202,7 +27202,7 @@
         <v>-0.08108108108108471</v>
       </c>
       <c r="BX104" t="n">
-        <v>-0.038961038961039286</v>
+        <v>-0.03896103896103931</v>
       </c>
       <c r="BY104" t="n">
         <v>3.0</v>
@@ -27393,7 +27393,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="BF105" t="n">
-        <v>0.5035429159959743</v>
+        <v>0.5035429159959739</v>
       </c>
       <c r="BG105" t="n">
         <v>4.011627906976744</v>
@@ -27638,7 +27638,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="BF106" t="n">
-        <v>0.529849899951352</v>
+        <v>0.5298498999513529</v>
       </c>
       <c r="BG106" t="n">
         <v>2.2045454545454546</v>
@@ -27692,7 +27692,7 @@
         <v>0.228865979381445</v>
       </c>
       <c r="BX106" t="n">
-        <v>-0.26378896882493935</v>
+        <v>-0.2637889688249392</v>
       </c>
       <c r="BY106" t="n">
         <v>4.0</v>
@@ -27883,7 +27883,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.5996258034517243</v>
+        <v>0.5996258034517241</v>
       </c>
       <c r="BG107" t="n">
         <v>1.588235294117647</v>
@@ -27937,7 +27937,7 @@
         <v>-0.6097560975609749</v>
       </c>
       <c r="BX107" t="n">
-        <v>-0.6754966887417219</v>
+        <v>-0.6754966887417223</v>
       </c>
       <c r="BY107" t="n">
         <v>3.0</v>
@@ -28128,7 +28128,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="BF108" t="n">
-        <v>0.5919173910257385</v>
+        <v>0.5919173910257384</v>
       </c>
       <c r="BG108" t="n">
         <v>2.7625</v>
@@ -28182,7 +28182,7 @@
         <v>-0.26760563380281566</v>
       </c>
       <c r="BX108" t="n">
-        <v>-0.20491803278688578</v>
+        <v>-0.20491803278688514</v>
       </c>
       <c r="BY108" t="n">
         <v>7.0</v>
@@ -28427,7 +28427,7 @@
         <v>-0.15254237288135483</v>
       </c>
       <c r="BX109" t="n">
-        <v>-0.2414089347079042</v>
+        <v>-0.2414089347079041</v>
       </c>
       <c r="BY109" t="n">
         <v>7.0</v>
@@ -28618,7 +28618,7 @@
         <v>1.0</v>
       </c>
       <c r="BF110" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="BG110" t="n">
         <v>1.6923076923076923</v>
@@ -28863,7 +28863,7 @@
         <v>0.6475168350168351</v>
       </c>
       <c r="BF111" t="n">
-        <v>0.6949192071523783</v>
+        <v>0.6949192071523781</v>
       </c>
       <c r="BG111" t="n">
         <v>2.3043478260869565</v>
@@ -28917,7 +28917,7 @@
         <v>0.4166666666666715</v>
       </c>
       <c r="BX111" t="n">
-        <v>-0.26829268292682923</v>
+        <v>-0.2682926829268295</v>
       </c>
       <c r="BY111" t="n">
         <v>6.0</v>
@@ -29108,7 +29108,7 @@
         <v>0.6081649831649831</v>
       </c>
       <c r="BF112" t="n">
-        <v>0.5885273831521244</v>
+        <v>0.5885273831521239</v>
       </c>
       <c r="BG112" t="n">
         <v>5.152941176470589</v>
@@ -29162,7 +29162,7 @@
         <v>0.13888888888888976</v>
       </c>
       <c r="BX112" t="n">
-        <v>-0.30789049919484696</v>
+        <v>-0.3078904991948474</v>
       </c>
       <c r="BY112" t="n">
         <v>12.0</v>
@@ -29407,7 +29407,7 @@
         <v>0.44099378881987417</v>
       </c>
       <c r="BX113" t="n">
-        <v>-0.3530066815144768</v>
+        <v>-0.3530066815144769</v>
       </c>
       <c r="BY113" t="n">
         <v>8.0</v>
@@ -29598,7 +29598,7 @@
         <v>0.7933884297520661</v>
       </c>
       <c r="BF114" t="n">
-        <v>0.7387592154231897</v>
+        <v>0.7387592154231893</v>
       </c>
       <c r="BG114" t="n">
         <v>1.72</v>
@@ -29652,7 +29652,7 @@
         <v>-0.12820512820513</v>
       </c>
       <c r="BX114" t="n">
-        <v>-0.43181818181818177</v>
+        <v>-0.4318181818181819</v>
       </c>
       <c r="BY114" t="n">
         <v>6.0</v>
@@ -29843,7 +29843,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="BF115" t="n">
-        <v>0.6922340897759255</v>
+        <v>0.6922340897759259</v>
       </c>
       <c r="BG115" t="n">
         <v>1.8571428571428572</v>
@@ -29897,7 +29897,7 @@
         <v>0.2613636363636385</v>
       </c>
       <c r="BX115" t="n">
-        <v>0.07874015748031477</v>
+        <v>0.07874015748031704</v>
       </c>
       <c r="BY115" t="n">
         <v>4.0</v>
@@ -30088,7 +30088,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="BF116" t="n">
-        <v>0.6817290787845062</v>
+        <v>0.6817290787845065</v>
       </c>
       <c r="BG116" t="n">
         <v>3.4516129032258065</v>
@@ -30142,7 +30142,7 @@
         <v>-0.2133333333333335</v>
       </c>
       <c r="BX116" t="n">
-        <v>-0.10638297872340459</v>
+        <v>-0.10638297872340453</v>
       </c>
       <c r="BY116" t="n">
         <v>5.0</v>
@@ -30281,7 +30281,7 @@
         <v>0.44297520661157025</v>
       </c>
       <c r="BF117" t="n">
-        <v>0.653155521457982</v>
+        <v>0.6531555214579818</v>
       </c>
       <c r="BG117" t="n">
         <v>2.40625</v>
@@ -30335,7 +30335,7 @@
         <v>-0.18032786885245847</v>
       </c>
       <c r="BX117" t="n">
-        <v>0.12041884816753931</v>
+        <v>0.12041884816753871</v>
       </c>
       <c r="BY117" t="n">
         <v>4.0</v>
@@ -30526,7 +30526,7 @@
         <v>0.7171717171717171</v>
       </c>
       <c r="BF118" t="n">
-        <v>0.7161395173470759</v>
+        <v>0.7161395173470758</v>
       </c>
       <c r="BG118" t="n">
         <v>6.3076923076923075</v>
@@ -30580,7 +30580,7 @@
         <v>-0.21240310077519223</v>
       </c>
       <c r="BX118" t="n">
-        <v>-0.44302325581395346</v>
+        <v>-0.4430232558139528</v>
       </c>
       <c r="BY118" t="n">
         <v>9.0</v>
@@ -30771,7 +30771,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="BF119" t="n">
-        <v>0.6402035492877843</v>
+        <v>0.640203549287784</v>
       </c>
       <c r="BG119" t="n">
         <v>4.785714285714286</v>
@@ -30825,7 +30825,7 @@
         <v>0.24738675958188214</v>
       </c>
       <c r="BX119" t="n">
-        <v>-0.7528089887640448</v>
+        <v>-0.7528089887640453</v>
       </c>
       <c r="BY119" t="n">
         <v>3.0</v>
@@ -31016,7 +31016,7 @@
         <v>0.6483516483516484</v>
       </c>
       <c r="BF120" t="n">
-        <v>0.6438228895554109</v>
+        <v>0.6438228895554112</v>
       </c>
       <c r="BG120" t="n">
         <v>3.9056603773584904</v>
@@ -31070,7 +31070,7 @@
         <v>0.2573673870333987</v>
       </c>
       <c r="BX120" t="n">
-        <v>-0.5413402959094862</v>
+        <v>-0.5413402959094872</v>
       </c>
       <c r="BY120" t="n">
         <v>6.0</v>
@@ -31315,7 +31315,7 @@
         <v>0.26787252368647757</v>
       </c>
       <c r="BX121" t="n">
-        <v>0.0011098779134287855</v>
+        <v>0.0011098779134281701</v>
       </c>
       <c r="BY121" t="n">
         <v>6.0</v>
@@ -31506,7 +31506,7 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="BF122" t="n">
-        <v>0.6462097425793839</v>
+        <v>0.6462097425793841</v>
       </c>
       <c r="BG122" t="n">
         <v>2.5</v>
@@ -31560,7 +31560,7 @@
         <v>0.32075471698113345</v>
       </c>
       <c r="BX122" t="n">
-        <v>-0.6054054054054059</v>
+        <v>-0.6054054054054061</v>
       </c>
       <c r="BY122" t="n">
         <v>2.0</v>
@@ -31803,7 +31803,7 @@
       </c>
       <c r="BW123"/>
       <c r="BX123" t="n">
-        <v>-0.5975232198142417</v>
+        <v>-0.5975232198142403</v>
       </c>
       <c r="BY123" t="n">
         <v>3.0</v>
@@ -31994,7 +31994,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="BF124" t="n">
-        <v>0.5757134300352922</v>
+        <v>0.5757134300352916</v>
       </c>
       <c r="BG124" t="n">
         <v>6.988095238095238</v>
@@ -32239,7 +32239,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="BF125" t="n">
-        <v>0.6400157487287923</v>
+        <v>0.640015748728792</v>
       </c>
       <c r="BG125" t="n">
         <v>1.3888888888888888</v>
@@ -32293,7 +32293,7 @@
         <v>0.1884057971014497</v>
       </c>
       <c r="BX125" t="n">
-        <v>0.18644067796610206</v>
+        <v>0.18644067796610084</v>
       </c>
       <c r="BY125" t="n">
         <v>3.0</v>
@@ -32484,7 +32484,7 @@
         <v>0.4577020202020202</v>
       </c>
       <c r="BF126" t="n">
-        <v>0.6448484920261269</v>
+        <v>0.6448484920261268</v>
       </c>
       <c r="BG126" t="n">
         <v>2.925925925925926</v>
@@ -32783,7 +32783,7 @@
         <v>-0.11984282907662061</v>
       </c>
       <c r="BX127" t="n">
-        <v>-0.27702702702702753</v>
+        <v>-0.27702702702702775</v>
       </c>
       <c r="BY127" t="n">
         <v>6.0</v>
@@ -32972,7 +32972,7 @@
         <v>0.6808021038790268</v>
       </c>
       <c r="BF128" t="n">
-        <v>0.6602627057680932</v>
+        <v>0.6602627057680929</v>
       </c>
       <c r="BG128" t="n">
         <v>5.120689655172414</v>
@@ -33215,7 +33215,7 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="BF129" t="n">
-        <v>0.6547605022189077</v>
+        <v>0.6547605022189078</v>
       </c>
       <c r="BG129" t="n">
         <v>1.56</v>
@@ -33269,7 +33269,7 @@
         <v>-0.07692307692307887</v>
       </c>
       <c r="BX129" t="n">
-        <v>-0.3873873873873871</v>
+        <v>-0.3873873873873882</v>
       </c>
       <c r="BY129" t="n">
         <v>4.0</v>
@@ -33512,7 +33512,7 @@
         <v>-0.3170731707317096</v>
       </c>
       <c r="BX130" t="n">
-        <v>-0.2894736842105256</v>
+        <v>-0.28947368421052416</v>
       </c>
       <c r="BY130" t="n">
         <v>5.0</v>
@@ -33653,7 +33653,7 @@
         <v>0.35374579124579125</v>
       </c>
       <c r="BF131" t="n">
-        <v>0.5153779723093671</v>
+        <v>0.5153779723093673</v>
       </c>
       <c r="BG131" t="n">
         <v>3.076923076923077</v>
@@ -33707,7 +33707,7 @@
         <v>-0.449180327868848</v>
       </c>
       <c r="BX131" t="n">
-        <v>-0.12152777777777705</v>
+        <v>-0.12152777777777796</v>
       </c>
       <c r="BY131" t="n">
         <v>4.0</v>
